--- a/data_processed/20250912/BTCUSDQMOMENT_20250912.xlsx
+++ b/data_processed/20250912/BTCUSDQMOMENT_20250912.xlsx
@@ -524,10 +524,18 @@
       <c r="H2" t="n">
         <v>12.77716345986741</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>-0.12577586116233</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.1320070435394081</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.984074996562454</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.435692187765883</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -906,10 +914,18 @@
       <c r="H13" t="n">
         <v>9.628057125794983</v>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>0.06026122232521429</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.03291395528915199</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.3694311789717795</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.841824612077463</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1066,10 +1082,18 @@
       <c r="H17" t="n">
         <v>5.293005229764328</v>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>0.1057498648702407</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.02126324543600907</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.9750808689615857</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.156014636291755</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">

--- a/data_processed/20250912/BTCUSDQMOMENT_20250912.xlsx
+++ b/data_processed/20250912/BTCUSDQMOMENT_20250912.xlsx
@@ -1124,10 +1124,18 @@
       <c r="H18" t="n">
         <v>7.777405239588595</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>-0.1119300937248394</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.2456466839623254</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.1838583654545527</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.610687095238301</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1158,10 +1166,18 @@
       <c r="H19" t="n">
         <v>6.477308024687465</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0.2190844768866997</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5198204364300951</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.1047479672860789</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.06667398167574</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">

--- a/data_processed/20250912/BTCUSDQMOMENT_20250912.xlsx
+++ b/data_processed/20250912/BTCUSDQMOMENT_20250912.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>10.52864733864939</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>-0.195105760602844</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.6081287845824713</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.451901484868166</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.517552118679247</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1208,10 +1216,18 @@
       <c r="H20" t="n">
         <v>5.484758287719742</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>0.035706369411352</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5931560001382098</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.1487503366435251</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.435309308996479</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
